--- a/Table/Table_xls/技能相关表/j技能阶段串联表.xlsx
+++ b/Table/Table_xls/技能相关表/j技能阶段串联表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070"/>
+    <workbookView windowWidth="28080" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2917" uniqueCount="1190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190">
   <si>
     <t>技能ID</t>
   </si>
@@ -3914,10 +3914,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -4011,9 +4011,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4026,11 +4026,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4041,13 +4040,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -4072,15 +4065,45 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4094,6 +4117,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -4101,39 +4132,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="41">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4226,12 +4226,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.25"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -4268,7 +4262,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4286,7 +4292,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4298,79 +4352,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4490,9 +4478,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4514,11 +4504,27 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4537,24 +4543,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="195">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4563,7 +4551,7 @@
     <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -4575,49 +4563,274 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4626,144 +4839,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4776,15 +4884,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4845,205 +4944,94 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
@@ -5274,15 +5262,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="3" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5293,7 +5281,7 @@
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="9" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5302,23 +5290,23 @@
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="8" borderId="0" xfId="54" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="4" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="4" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="4" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="4" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5343,19 +5331,19 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="7" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" xfId="20" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="7" xfId="20" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="19" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="7" xfId="19" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5432,11 +5420,11 @@
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="8" xfId="40" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="21" borderId="8" xfId="40" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="8" xfId="40" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="8" xfId="40" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="20" borderId="8" xfId="40" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="8" xfId="40" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
@@ -5445,7 +5433,7 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="22" borderId="0" xfId="42" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="9" fillId="21" borderId="0" xfId="42" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="74">
       <alignment vertical="center"/>
     </xf>
@@ -5463,9 +5451,9 @@
     <cellStyle name="输入" xfId="3" builtinId="20"/>
     <cellStyle name="货币" xfId="4" builtinId="4"/>
     <cellStyle name="常规 10 3" xfId="5"/>
-    <cellStyle name="差 2 6" xfId="6"/>
-    <cellStyle name="千位分隔[0]" xfId="7" builtinId="6"/>
-    <cellStyle name="常规 3 4 3" xfId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="6" builtinId="6"/>
+    <cellStyle name="常规 3 4 3" xfId="7"/>
+    <cellStyle name="差 2 6" xfId="8"/>
     <cellStyle name="40% - 强调文字颜色 3" xfId="9" builtinId="39"/>
     <cellStyle name="常规 26 2" xfId="10"/>
     <cellStyle name="差" xfId="11" builtinId="27"/>
@@ -5476,10 +5464,10 @@
     <cellStyle name="百分比" xfId="16" builtinId="5"/>
     <cellStyle name="差 2 7" xfId="17"/>
     <cellStyle name="已访问的超链接" xfId="18" builtinId="9"/>
-    <cellStyle name="差 4" xfId="19"/>
-    <cellStyle name="注释" xfId="20" builtinId="10"/>
-    <cellStyle name="常规 6 13" xfId="21"/>
-    <cellStyle name="常规 6" xfId="22"/>
+    <cellStyle name="注释" xfId="19" builtinId="10"/>
+    <cellStyle name="常规 6 13" xfId="20"/>
+    <cellStyle name="常规 6" xfId="21"/>
+    <cellStyle name="差 4" xfId="22"/>
     <cellStyle name="警告文本" xfId="23" builtinId="11"/>
     <cellStyle name="常规 6 5" xfId="24"/>
     <cellStyle name="60% - 强调文字颜色 2" xfId="25" builtinId="36"/>
@@ -5526,9 +5514,9 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="66" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="67" builtinId="52"/>
     <cellStyle name="20% - 强调文字颜色 6 7" xfId="68"/>
-    <cellStyle name="常规 21 2" xfId="69"/>
+    <cellStyle name="常规 10" xfId="69"/>
     <cellStyle name="常规 16 2" xfId="70"/>
-    <cellStyle name="常规 10" xfId="71"/>
+    <cellStyle name="常规 21 2" xfId="71"/>
     <cellStyle name="常规 10 2" xfId="72"/>
     <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="73"/>
     <cellStyle name="差 3" xfId="74"/>
@@ -5536,23 +5524,23 @@
     <cellStyle name="常规 10 4" xfId="76"/>
     <cellStyle name="常规 10 6" xfId="77"/>
     <cellStyle name="常规 10 7" xfId="78"/>
-    <cellStyle name="常规 21 3" xfId="79"/>
+    <cellStyle name="常规 11" xfId="79"/>
     <cellStyle name="常规 16 3" xfId="80"/>
-    <cellStyle name="常规 11" xfId="81"/>
-    <cellStyle name="常规 21 4" xfId="82"/>
+    <cellStyle name="常规 21 3" xfId="81"/>
+    <cellStyle name="常规 12" xfId="82"/>
     <cellStyle name="常规 16 4" xfId="83"/>
-    <cellStyle name="常规 12" xfId="84"/>
-    <cellStyle name="常规 21 5" xfId="85"/>
+    <cellStyle name="常规 21 4" xfId="84"/>
+    <cellStyle name="常规 13" xfId="85"/>
     <cellStyle name="常规 16 5" xfId="86"/>
-    <cellStyle name="常规 13" xfId="87"/>
-    <cellStyle name="常规 21 7" xfId="88"/>
-    <cellStyle name="常规 20" xfId="89"/>
-    <cellStyle name="常规 16 7" xfId="90"/>
-    <cellStyle name="常规 15" xfId="91"/>
-    <cellStyle name="常规 21" xfId="92"/>
-    <cellStyle name="常规 16" xfId="93"/>
-    <cellStyle name="常规 21 6" xfId="94"/>
-    <cellStyle name="常规 16 6" xfId="95"/>
+    <cellStyle name="常规 21 5" xfId="87"/>
+    <cellStyle name="常规 15" xfId="88"/>
+    <cellStyle name="常规 16 7" xfId="89"/>
+    <cellStyle name="常规 20" xfId="90"/>
+    <cellStyle name="常规 21 7" xfId="91"/>
+    <cellStyle name="常规 16" xfId="92"/>
+    <cellStyle name="常规 21" xfId="93"/>
+    <cellStyle name="常规 16 6" xfId="94"/>
+    <cellStyle name="常规 21 6" xfId="95"/>
     <cellStyle name="常规 2 2" xfId="96"/>
     <cellStyle name="常规 2 3" xfId="97"/>
     <cellStyle name="常规 2 4" xfId="98"/>
@@ -5595,13 +5583,13 @@
     <cellStyle name="常规 25 6" xfId="135"/>
     <cellStyle name="常规 25 7" xfId="136"/>
     <cellStyle name="常规 26 6" xfId="137"/>
-    <cellStyle name="常规 3 2 2" xfId="138"/>
-    <cellStyle name="常规 26 7" xfId="139"/>
-    <cellStyle name="常规 6 10" xfId="140"/>
+    <cellStyle name="常规 26 7" xfId="138"/>
+    <cellStyle name="常规 3 2 2" xfId="139"/>
+    <cellStyle name="常规 3" xfId="140"/>
     <cellStyle name="常规 3 3 5" xfId="141"/>
-    <cellStyle name="常规 3" xfId="142"/>
-    <cellStyle name="常规 6 6" xfId="143"/>
-    <cellStyle name="常规 3 10" xfId="144"/>
+    <cellStyle name="常规 6 10" xfId="142"/>
+    <cellStyle name="常规 3 10" xfId="143"/>
+    <cellStyle name="常规 6 6" xfId="144"/>
     <cellStyle name="常规 3 11" xfId="145"/>
     <cellStyle name="常规 3 12" xfId="146"/>
     <cellStyle name="常规 3 13" xfId="147"/>
@@ -5614,12 +5602,12 @@
     <cellStyle name="常规 3 3 2" xfId="154"/>
     <cellStyle name="常规 3 3 3" xfId="155"/>
     <cellStyle name="常规 3 3 4" xfId="156"/>
-    <cellStyle name="常规 6 11" xfId="157"/>
+    <cellStyle name="常规 3 3 6" xfId="157"/>
     <cellStyle name="常规 4" xfId="158"/>
-    <cellStyle name="常规 3 3 6" xfId="159"/>
-    <cellStyle name="常规 6 12" xfId="160"/>
+    <cellStyle name="常规 6 11" xfId="159"/>
+    <cellStyle name="常规 3 3 7" xfId="160"/>
     <cellStyle name="常规 5" xfId="161"/>
-    <cellStyle name="常规 3 3 7" xfId="162"/>
+    <cellStyle name="常规 6 12" xfId="162"/>
     <cellStyle name="常规 3 4" xfId="163"/>
     <cellStyle name="常规 3 4 2" xfId="164"/>
     <cellStyle name="常规 3 4 4" xfId="165"/>
@@ -5653,12 +5641,7 @@
     <cellStyle name="常规 6 4" xfId="193"/>
     <cellStyle name="常规 7" xfId="194"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -5985,37 +5968,38 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:E1277"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C341" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C325" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C287" sqref="C287"/>
+      <selection pane="bottomRight" activeCell="C333" sqref="C333"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14545454545454" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.8545454545455" style="1" customWidth="1"/>
-    <col min="3" max="3" width="100.145454545455" style="9" customWidth="1"/>
-    <col min="4" max="4" width="72.1454545454545" style="9" customWidth="1"/>
-    <col min="5" max="5" width="9.14545454545454" style="1"/>
+    <col min="2" max="2" width="30.8571428571429" style="1" customWidth="1"/>
+    <col min="3" max="3" width="100.142857142857" style="9" customWidth="1"/>
+    <col min="4" max="4" width="72.1428571428571" style="9" customWidth="1"/>
+    <col min="5" max="5" width="9.14285714285714" style="1"/>
     <col min="6" max="10" width="11" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5727272727273" style="1" customWidth="1"/>
-    <col min="12" max="12" width="13.1454545454545" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5714285714286" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.1428571428571" style="1" customWidth="1"/>
     <col min="13" max="13" width="12" style="1" customWidth="1"/>
-    <col min="14" max="19" width="9.14545454545454" style="1"/>
-    <col min="20" max="20" width="17.2818181818182" style="1" customWidth="1"/>
-    <col min="21" max="21" width="30.5727272727273" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.14545454545454" style="1"/>
+    <col min="14" max="19" width="9.14285714285714" style="1"/>
+    <col min="20" max="20" width="17.2857142857143" style="1" customWidth="1"/>
+    <col min="21" max="21" width="30.5714285714286" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -7023,7 +7007,7 @@
       </c>
       <c r="D83" s="27"/>
     </row>
-    <row r="84" customHeight="1" spans="1:4">
+    <row r="84" ht="14" customHeight="1" spans="1:4">
       <c r="A84" s="25">
         <v>1300056</v>
       </c>
@@ -11113,7 +11097,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="408" s="8" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
+    <row r="408" s="8" customFormat="1" customHeight="1" spans="1:4">
       <c r="A408" s="70">
         <v>1800040</v>
       </c>
@@ -11533,7 +11517,7 @@
       </c>
       <c r="D441" s="47"/>
     </row>
-    <row r="442" ht="12.5" spans="1:3">
+    <row r="442" ht="12.75" spans="1:3">
       <c r="A442" s="17">
         <v>2070090</v>
       </c>
@@ -11544,7 +11528,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="443" ht="12.5" spans="1:3">
+    <row r="443" ht="12.75" spans="1:3">
       <c r="A443" s="17">
         <v>2070100</v>
       </c>
@@ -11555,7 +11539,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="444" ht="12.5" spans="1:3">
+    <row r="444" ht="12.75" spans="1:3">
       <c r="A444" s="17">
         <v>2070101</v>
       </c>
@@ -11566,7 +11550,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="445" ht="12.5" spans="1:3">
+    <row r="445" ht="12.75" spans="1:3">
       <c r="A445" s="17">
         <v>2070102</v>
       </c>
@@ -11577,7 +11561,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="446" ht="12.5" spans="1:3">
+    <row r="446" ht="12.75" spans="1:3">
       <c r="A446" s="17">
         <v>2070103</v>
       </c>
@@ -11588,7 +11572,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="447" ht="12.5" spans="1:3">
+    <row r="447" ht="12.75" spans="1:3">
       <c r="A447" s="17">
         <v>2070110</v>
       </c>
@@ -11599,7 +11583,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="448" ht="12.5" spans="1:3">
+    <row r="448" ht="12.75" spans="1:3">
       <c r="A448" s="17">
         <v>2070111</v>
       </c>
@@ -11610,7 +11594,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="449" ht="13" spans="1:3">
+    <row r="449" ht="12.75" spans="1:3">
       <c r="A449" s="17">
         <v>2070120</v>
       </c>
@@ -11621,7 +11605,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="450" ht="12.5" spans="1:3">
+    <row r="450" ht="12.75" spans="1:3">
       <c r="A450" s="17">
         <v>2070130</v>
       </c>
@@ -11632,7 +11616,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="451" ht="12.5" spans="1:3">
+    <row r="451" ht="12.75" spans="1:3">
       <c r="A451" s="17">
         <v>2070140</v>
       </c>
@@ -11643,7 +11627,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="452" ht="12.5" spans="1:3">
+    <row r="452" ht="12.75" spans="1:3">
       <c r="A452" s="17">
         <v>2070150</v>
       </c>
@@ -11654,7 +11638,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="453" ht="12.5" spans="1:3">
+    <row r="453" ht="12.75" spans="1:3">
       <c r="A453" s="17">
         <v>2070151</v>
       </c>
@@ -11665,7 +11649,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="454" ht="12.5" spans="1:3">
+    <row r="454" ht="12.75" spans="1:3">
       <c r="A454" s="17">
         <v>2070152</v>
       </c>
@@ -11676,7 +11660,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="455" ht="12.5" spans="1:3">
+    <row r="455" ht="12.75" spans="1:3">
       <c r="A455" s="17">
         <v>2070153</v>
       </c>
@@ -11687,7 +11671,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="456" ht="12.5" spans="1:3">
+    <row r="456" ht="12.75" spans="1:3">
       <c r="A456" s="17">
         <v>2070160</v>
       </c>
@@ -15925,7 +15909,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="815" ht="14.75" spans="1:4">
+    <row r="815" ht="14.25" spans="1:4">
       <c r="A815" s="42">
         <v>7410020</v>
       </c>
@@ -15939,7 +15923,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="816" ht="15.5" spans="1:4">
+    <row r="816" ht="15" spans="1:4">
       <c r="A816" s="42">
         <v>7410021</v>
       </c>
@@ -15953,7 +15937,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="817" ht="15.5" spans="1:4">
+    <row r="817" ht="15" spans="1:4">
       <c r="A817" s="42">
         <v>7410022</v>
       </c>
@@ -15967,7 +15951,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="818" ht="15.5" spans="1:4">
+    <row r="818" ht="15" spans="1:4">
       <c r="A818" s="42">
         <v>7410023</v>
       </c>
@@ -15981,7 +15965,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="819" ht="15.5" spans="1:4">
+    <row r="819" ht="15" spans="1:4">
       <c r="A819" s="119">
         <v>7410024</v>
       </c>
@@ -15995,7 +15979,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="820" ht="15.5" spans="1:4">
+    <row r="820" ht="15" spans="1:4">
       <c r="A820" s="42">
         <v>7410025</v>
       </c>
@@ -16009,7 +15993,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="821" ht="15.5" spans="1:4">
+    <row r="821" ht="15" spans="1:4">
       <c r="A821" s="42">
         <v>7410026</v>
       </c>
@@ -16023,7 +16007,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="822" ht="15.5" spans="1:4">
+    <row r="822" ht="15" spans="1:4">
       <c r="A822" s="42">
         <v>7410027</v>
       </c>
@@ -16037,7 +16021,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="823" ht="14.75" spans="1:4">
+    <row r="823" ht="14.25" spans="1:4">
       <c r="A823" s="42">
         <v>7410030</v>
       </c>
@@ -16247,7 +16231,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="838" ht="14.75" spans="1:4">
+    <row r="838" ht="14.25" spans="1:4">
       <c r="A838" s="28">
         <v>7420020</v>
       </c>
@@ -16261,7 +16245,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="839" ht="15.5" spans="1:4">
+    <row r="839" ht="15" spans="1:4">
       <c r="A839" s="28">
         <v>7420021</v>
       </c>
@@ -16275,7 +16259,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="840" ht="15.5" spans="1:4">
+    <row r="840" ht="15" spans="1:4">
       <c r="A840" s="28">
         <v>7420022</v>
       </c>
@@ -16289,7 +16273,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="841" ht="15.5" spans="1:4">
+    <row r="841" ht="15" spans="1:4">
       <c r="A841" s="28">
         <v>7420023</v>
       </c>
@@ -16303,7 +16287,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="842" ht="15.5" spans="1:4">
+    <row r="842" ht="15" spans="1:4">
       <c r="A842" s="28">
         <v>7420024</v>
       </c>
@@ -16317,7 +16301,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="843" ht="15.5" spans="1:4">
+    <row r="843" ht="15" spans="1:4">
       <c r="A843" s="28">
         <v>7420025</v>
       </c>
@@ -16331,7 +16315,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="844" ht="15.5" spans="1:4">
+    <row r="844" ht="15" spans="1:4">
       <c r="A844" s="28">
         <v>7420026</v>
       </c>
@@ -16345,7 +16329,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="845" ht="14.75" spans="1:4">
+    <row r="845" ht="14.25" spans="1:4">
       <c r="A845" s="28">
         <v>7420030</v>
       </c>
@@ -16555,7 +16539,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="860" ht="14.75" spans="1:4">
+    <row r="860" ht="14.25" spans="1:4">
       <c r="A860" s="42">
         <v>7430020</v>
       </c>
@@ -16569,7 +16553,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="861" ht="15.5" spans="1:4">
+    <row r="861" ht="15" spans="1:4">
       <c r="A861" s="42">
         <v>7430021</v>
       </c>
@@ -16583,7 +16567,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="862" ht="15.5" spans="1:4">
+    <row r="862" ht="15" spans="1:4">
       <c r="A862" s="42">
         <v>7430022</v>
       </c>
@@ -16597,7 +16581,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="863" ht="15.5" spans="1:4">
+    <row r="863" ht="15" spans="1:4">
       <c r="A863" s="42">
         <v>7430023</v>
       </c>
@@ -16611,7 +16595,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="864" ht="15.5" spans="1:4">
+    <row r="864" ht="15" spans="1:4">
       <c r="A864" s="104">
         <v>7430024</v>
       </c>
@@ -16625,7 +16609,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="865" ht="15.5" spans="1:4">
+    <row r="865" ht="15" spans="1:4">
       <c r="A865" s="104">
         <v>7430025</v>
       </c>
@@ -16639,7 +16623,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="866" ht="15.5" spans="1:4">
+    <row r="866" ht="15" spans="1:4">
       <c r="A866" s="42">
         <v>7430026</v>
       </c>
@@ -16653,7 +16637,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="867" ht="15.5" spans="1:4">
+    <row r="867" ht="15" spans="1:4">
       <c r="A867" s="42">
         <v>7430027</v>
       </c>
@@ -16667,7 +16651,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="868" ht="15.5" spans="1:4">
+    <row r="868" ht="15" spans="1:4">
       <c r="A868" s="42">
         <v>7430028</v>
       </c>
@@ -16681,7 +16665,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="869" ht="14.75" spans="1:4">
+    <row r="869" ht="14.25" spans="1:4">
       <c r="A869" s="42">
         <v>7430030</v>
       </c>
@@ -21606,9 +21590,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:X1277">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:X1277"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
